--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/ClOtherRights.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/ClOtherRights.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2F0F3A-D52D-43E4-BE8F-812F70900F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90405BFB-F699-4FEB-9C3A-C8BE9DCF4ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
+    <sheet name="JsonFields" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="106">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -384,12 +385,113 @@
     <t>ex：0000-000</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>ReceiveFg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>領取記號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:未領取
+1:已領取</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChoiceDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>篩選資料日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DecimalD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>篩選資料時upd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findChoiceDateEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChoiceDate = ,AND LastUpdateEmpNo =</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChoiceSeq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>篩選序號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChoiceSeq ASC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JsonFields</t>
+  </si>
+  <si>
+    <t>jason格式紀錄欄</t>
+  </si>
+  <si>
+    <t>欄位名稱</t>
+  </si>
+  <si>
+    <t>中文名稱</t>
+  </si>
+  <si>
+    <t>形態</t>
+  </si>
+  <si>
+    <t>長度</t>
+  </si>
+  <si>
+    <t>小數</t>
+  </si>
+  <si>
+    <t>備註說明</t>
+  </si>
+  <si>
+    <t>來源</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>戶號</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decimal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FacmNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>額度編號</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>列印時寫入</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -476,8 +578,44 @@
       <family val="4"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -490,8 +628,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -540,6 +684,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -552,7 +707,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -613,11 +768,44 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -959,10 +1147,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -977,10 +1165,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="22"/>
       <c r="C1" s="8" t="s">
         <v>58</v>
       </c>
@@ -992,8 +1180,8 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="12" t="s">
         <v>42</v>
       </c>
@@ -1005,10 +1193,10 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="21"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="8" t="s">
         <v>61</v>
       </c>
@@ -1018,10 +1206,10 @@
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="15" t="s">
         <v>37</v>
       </c>
@@ -1033,10 +1221,10 @@
       <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="21"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="15" t="s">
         <v>31</v>
       </c>
@@ -1046,10 +1234,10 @@
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="21"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="15" t="s">
         <v>32</v>
       </c>
@@ -1059,10 +1247,10 @@
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="21"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="15"/>
       <c r="D7" s="16"/>
       <c r="E7" s="14"/>
@@ -1372,111 +1560,155 @@
       </c>
       <c r="G22" s="19"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A23" s="19">
         <v>15</v>
       </c>
-      <c r="B23" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="B23" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="20">
+        <v>1</v>
+      </c>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="19">
         <v>16</v>
       </c>
-      <c r="B24" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="18">
-        <v>6</v>
-      </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="B24" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="19">
+        <v>8</v>
+      </c>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="19">
         <v>17</v>
       </c>
-      <c r="B25" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="B25" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="19">
+        <v>3</v>
+      </c>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="19">
         <v>18</v>
       </c>
-      <c r="B26" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="18" t="s">
+      <c r="B26" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="18">
-        <v>6</v>
-      </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="E26" s="25">
+        <v>300</v>
+      </c>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
+      <c r="A27" s="19">
+        <v>19</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
+      <c r="A28" s="19">
+        <v>20</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="18">
+        <v>6</v>
+      </c>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
+      <c r="A29" s="19">
+        <v>21</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
+      <c r="A30" s="19">
+        <v>22</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="18">
+        <v>6</v>
+      </c>
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
     </row>
@@ -1785,6 +2017,42 @@
       <c r="E64" s="18"/>
       <c r="F64" s="18"/>
       <c r="G64" s="18"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="18"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="18"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="18"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="18"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1804,7 +2072,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1874,9 +2142,106 @@
         <v>68</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB12022C-6516-434C-A603-817056F9B466}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="29">
+        <v>1</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="29">
+        <v>7</v>
+      </c>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" s="32"/>
+    </row>
+    <row r="3" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="29">
+        <v>2</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="29">
+        <v>3</v>
+      </c>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="32"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/ClOtherRights.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/ClOtherRights.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90405BFB-F699-4FEB-9C3A-C8BE9DCF4ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEC6A91-6B15-4695-81A5-DEC331163D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,17 +31,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="95">
   <si>
     <t>讀取Key條件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>其他ORDER條件</t>
   </si>
   <si>
     <t>FunNm</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
@@ -159,43 +159,43 @@
   </si>
   <si>
     <t>Table</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Uni</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>PrimaryKey</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ForeignKey1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Index1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Index2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Index3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SEQ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>擔保品代號1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>擔保品代號2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ClCode1</t>
@@ -211,292 +211,262 @@
   </si>
   <si>
     <t>擔保品代號檔CdCl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ClCode1,ClCode2,ClNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ClMain(ClCode1,ClCode2,ClNo)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>findClCode1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">ClCode1 = </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>findClCode2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">ClCode1 = ,AND ClCode2 = </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Key ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">縣市   </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>地政</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">收件年  </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">收件字 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">收件號 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>權利價值說明</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>擔保債權總金額</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>City</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>LandAdm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>RecYear</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>RecWord</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>RecNumber</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SecuredTotal</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>擔保品他項權利檔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>RightsNote</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ClOtherRights</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Seq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>他項權利序號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ClCode1,ClCode2,ClNo,Seq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>findClNo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">ClCode1 = ,AND ClCode2 = ,AND ClNo = </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>findClCodeRange</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ClCode2 ASC,ClNo ASC, Seq ASC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ClNo ASC, Seq ASC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Seq ASC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ClCode1 ASC,ClCode2 ASC, ClNo ASC, Seq ASC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ClCode1 &gt;= ,AND ClCode1 &lt;= ,AND ClCode2 &gt;= ,AND ClCode2 &lt;= ,AND ClNo &gt;= ,AND ClNo &lt;=</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>其他縣市</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>其他地政</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">其他收件字 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>自行輸入</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>OtherRecWord</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>OtherLandAdm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>OtherCity</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ex：0000-000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ReceiveFg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>領取記號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>0:未領取
 1:已領取</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ChoiceDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>篩選資料日期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>DecimalD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>篩選資料時upd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>findChoiceDateEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ChoiceDate = ,AND LastUpdateEmpNo =</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChoiceSeq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>篩選序號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChoiceSeq ASC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CloseNo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>戶號</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>清償序號</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo asc,CloseNo asc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>JsonFields</t>
   </si>
   <si>
     <t>jason格式紀錄欄</t>
-  </si>
-  <si>
-    <t>欄位名稱</t>
-  </si>
-  <si>
-    <t>中文名稱</t>
-  </si>
-  <si>
-    <t>形態</t>
-  </si>
-  <si>
-    <t>長度</t>
-  </si>
-  <si>
-    <t>小數</t>
-  </si>
-  <si>
-    <t>備註說明</t>
-  </si>
-  <si>
-    <t>來源</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>戶號</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>Decimal</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FacmNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>額度編號</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>列印時寫入</t>
-    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -593,29 +563,14 @@
       <charset val="136"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -628,14 +583,8 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -684,134 +633,134 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="一般 2 2" xfId="2" xr:uid="{9F39A279-59AA-4F0D-8EA7-53E422FD4091}"/>
+    <cellStyle name="一般 2 2 2" xfId="4" xr:uid="{3FAC3F37-DB15-4A4B-A02E-13DCC44E9DD9}"/>
+    <cellStyle name="一般 2 3" xfId="3" xr:uid="{76AF47BB-5311-45C6-B27B-C3CEFD85A145}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1147,10 +1096,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1159,900 +1108,925 @@
     <col min="2" max="2" width="19" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="72.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="8" t="s">
         <v>58</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="12" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="30"/>
+      <c r="C4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="30"/>
+      <c r="C5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="30"/>
+      <c r="C6" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18">
+      <c r="A9" s="17">
         <v>1</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="23">
         <v>1</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18" t="s">
+      <c r="F9" s="17"/>
+      <c r="G9" s="17" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="18">
+      <c r="A10" s="17">
         <v>2</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="23">
         <v>2</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18" t="s">
+      <c r="F10" s="17"/>
+      <c r="G10" s="17" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="19">
+      <c r="A11" s="18">
         <v>3</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="23">
         <v>7</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="19">
+      <c r="A12" s="18">
         <v>4</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="23">
         <v>8</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19" t="s">
+      <c r="F12" s="18"/>
+      <c r="G12" s="18" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="19">
+      <c r="A13" s="18">
         <v>5</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="23">
         <v>2</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="19">
+      <c r="A14" s="18">
         <v>6</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="23">
         <v>40</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="19" t="s">
+      <c r="F14" s="17"/>
+      <c r="G14" s="18" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="19">
+      <c r="A15" s="18">
         <v>7</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="23">
         <v>2</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="19">
+      <c r="A16" s="18">
         <v>8</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="23">
         <v>40</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19" t="s">
+      <c r="F16" s="17"/>
+      <c r="G16" s="18" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="19">
+      <c r="A17" s="18">
         <v>9</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="23">
         <v>3</v>
       </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="19">
+      <c r="A18" s="18">
         <v>10</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="23">
         <v>3</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="19">
+      <c r="A19" s="18">
         <v>11</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="23">
         <v>40</v>
       </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18" t="s">
+      <c r="F19" s="17"/>
+      <c r="G19" s="17" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="19">
+      <c r="A20" s="18">
         <v>12</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="23">
         <v>6</v>
       </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="19">
+      <c r="A21" s="18">
         <v>13</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="23">
         <v>2</v>
       </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="19">
+      <c r="A22" s="18">
         <v>14</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="23">
         <v>16</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="18">
         <v>2</v>
       </c>
-      <c r="G22" s="19"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="19">
+      <c r="A23" s="18">
         <v>15</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="24">
         <v>1</v>
       </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20" t="s">
+      <c r="F23" s="19"/>
+      <c r="G23" s="19" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="19">
+      <c r="A24" s="18">
         <v>16</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="23">
         <v>8</v>
       </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20" t="s">
+      <c r="F24" s="19"/>
+      <c r="G24" s="19" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="19">
+      <c r="A25" s="18">
         <v>17</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="23">
+        <v>7</v>
+      </c>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="18">
+        <v>18</v>
+      </c>
+      <c r="B26" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="C26" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E26" s="27">
         <v>3</v>
       </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="19">
+      <c r="F26" s="19"/>
+      <c r="G26" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="18"/>
+      <c r="B27" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="32">
+        <v>300</v>
+      </c>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="18">
+        <v>19</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="23"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="18">
+        <v>20</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="23">
+        <v>6</v>
+      </c>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="18">
+        <v>21</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="23"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="18">
+        <v>22</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" s="23" t="s">
+      <c r="D31" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="25">
-        <v>300</v>
-      </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="19">
-        <v>19</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="19">
-        <v>20</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="18">
+      <c r="E31" s="23">
         <v>6</v>
       </c>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="19">
-        <v>21</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="19">
-        <v>22</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="18">
-        <v>6</v>
-      </c>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="18"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="18"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="18"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="18"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="18"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="18"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="18"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
+      <c r="A52" s="17"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="18"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
+      <c r="A53" s="17"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="18"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="18"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="18"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="18"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
+      <c r="A57" s="17"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="18"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="18"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
+      <c r="A59" s="17"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="18"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
+      <c r="A60" s="17"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="18"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
+      <c r="A61" s="17"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="18"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
+      <c r="A62" s="17"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="18"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
+      <c r="A63" s="17"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="18"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
+      <c r="A64" s="17"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="18"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
+      <c r="A65" s="17"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="18"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
+      <c r="A66" s="17"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="18"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
+      <c r="A67" s="17"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="18"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
+      <c r="A68" s="17"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="17"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="17"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2064,7 +2038,7 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2074,9 +2048,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2150,97 +2124,26 @@
         <v>87</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB12022C-6516-434C-A603-817056F9B466}">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27BF31AE-C4DD-427B-BFC7-2BE831E6F41A}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="29">
-        <v>1</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="29">
-        <v>7</v>
-      </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="H2" s="32"/>
-    </row>
-    <row r="3" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="29">
-        <v>2</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" s="29">
-        <v>3</v>
-      </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="H3" s="32"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/ClOtherRights.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/ClOtherRights.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L2-業務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEC6A91-6B15-4695-81A5-DEC331163D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1F7463-AD28-41FC-8E02-BF3AA576603A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="JsonFields" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -423,15 +423,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>CustNo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>CloseNo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>戶號</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -443,17 +435,27 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>JsonFields</t>
-  </si>
-  <si>
-    <t>jason格式紀錄欄</t>
+    <t>ReceiveCustNo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>篩選戶號</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>戶號</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -556,13 +558,6 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="1"/>
@@ -651,7 +646,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -744,15 +739,6 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1098,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1557,10 +1543,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>19</v>
@@ -1578,10 +1564,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="22" t="s">
         <v>89</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>91</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>19</v>
@@ -1595,25 +1581,27 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
-      <c r="B27" s="31" t="s">
+      <c r="A27" s="18">
+        <v>19</v>
+      </c>
+      <c r="B27" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="D27" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="32">
-        <v>300</v>
+      <c r="D27" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="23">
+        <v>7</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="18">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B28" s="17" t="s">
         <v>12</v>
@@ -1630,7 +1618,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="18">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B29" s="17" t="s">
         <v>14</v>
@@ -1649,7 +1637,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="18">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B30" s="17" t="s">
         <v>16</v>
@@ -1666,7 +1654,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="18">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B31" s="17" t="s">
         <v>10</v>
@@ -2124,7 +2112,7 @@
         <v>87</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2144,7 +2132,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/ClOtherRights.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/ClOtherRights.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1F7463-AD28-41FC-8E02-BF3AA576603A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816E7A8C-4FF9-444D-A7CB-04EBA4A9DADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -551,18 +551,17 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="3">
@@ -704,33 +703,15 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -738,6 +719,24 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1085,7 +1084,7 @@
   <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1094,102 +1093,102 @@
     <col min="2" max="2" width="19" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="72.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="24"/>
       <c r="C1" s="8" t="s">
         <v>58</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="25"/>
+      <c r="E1" s="20"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="11" t="s">
         <v>42</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="25"/>
+      <c r="E2" s="20"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="8" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="15"/>
-      <c r="E3" s="25"/>
+      <c r="E3" s="20"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="14" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="25"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="30"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="14" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="15"/>
-      <c r="E5" s="25"/>
+      <c r="E5" s="20"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="14" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="15"/>
-      <c r="E6" s="25"/>
+      <c r="E6" s="20"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="30"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="14"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="25"/>
+      <c r="E7" s="20"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
     </row>
@@ -1206,7 +1205,7 @@
       <c r="D8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="21" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="11" t="s">
@@ -1229,7 +1228,7 @@
       <c r="D9" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="19">
         <v>1</v>
       </c>
       <c r="F9" s="17"/>
@@ -1250,7 +1249,7 @@
       <c r="D10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="19">
         <v>2</v>
       </c>
       <c r="F10" s="17"/>
@@ -1271,7 +1270,7 @@
       <c r="D11" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="19">
         <v>7</v>
       </c>
       <c r="F11" s="17"/>
@@ -1290,7 +1289,7 @@
       <c r="D12" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="19">
         <v>8</v>
       </c>
       <c r="F12" s="18"/>
@@ -1311,7 +1310,7 @@
       <c r="D13" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="19">
         <v>2</v>
       </c>
       <c r="F13" s="18"/>
@@ -1330,7 +1329,7 @@
       <c r="D14" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="19">
         <v>40</v>
       </c>
       <c r="F14" s="17"/>
@@ -1351,7 +1350,7 @@
       <c r="D15" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="19">
         <v>2</v>
       </c>
       <c r="F15" s="18"/>
@@ -1370,7 +1369,7 @@
       <c r="D16" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="19">
         <v>40</v>
       </c>
       <c r="F16" s="17"/>
@@ -1391,7 +1390,7 @@
       <c r="D17" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="19">
         <v>3</v>
       </c>
       <c r="F17" s="17"/>
@@ -1410,7 +1409,7 @@
       <c r="D18" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="19">
         <v>3</v>
       </c>
       <c r="F18" s="18"/>
@@ -1429,7 +1428,7 @@
       <c r="D19" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="19">
         <v>40</v>
       </c>
       <c r="F19" s="17"/>
@@ -1450,7 +1449,7 @@
       <c r="D20" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="19">
         <v>6</v>
       </c>
       <c r="F20" s="17"/>
@@ -1469,7 +1468,7 @@
       <c r="D21" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="19">
         <v>2</v>
       </c>
       <c r="F21" s="17"/>
@@ -1488,7 +1487,7 @@
       <c r="D22" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="19">
         <v>16</v>
       </c>
       <c r="F22" s="18">
@@ -1500,20 +1499,20 @@
       <c r="A23" s="18">
         <v>15</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="26">
         <v>1</v>
       </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19" t="s">
+      <c r="F23" s="25"/>
+      <c r="G23" s="25" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1521,20 +1520,20 @@
       <c r="A24" s="18">
         <v>16</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="26">
         <v>8</v>
       </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19" t="s">
+      <c r="F24" s="25"/>
+      <c r="G24" s="25" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1542,20 +1541,20 @@
       <c r="A25" s="18">
         <v>17</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="26">
         <v>7</v>
       </c>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19" t="s">
+      <c r="F25" s="25"/>
+      <c r="G25" s="25" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1563,20 +1562,20 @@
       <c r="A26" s="18">
         <v>18</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="27">
+      <c r="E26" s="30">
         <v>3</v>
       </c>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19" t="s">
+      <c r="F26" s="25"/>
+      <c r="G26" s="25" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1584,20 +1583,20 @@
       <c r="A27" s="18">
         <v>19</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="26">
         <v>7</v>
       </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="18">
@@ -1612,7 +1611,7 @@
       <c r="D28" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="23"/>
+      <c r="E28" s="19"/>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
     </row>
@@ -1629,7 +1628,7 @@
       <c r="D29" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="19">
         <v>6</v>
       </c>
       <c r="F29" s="17"/>
@@ -1648,7 +1647,7 @@
       <c r="D30" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="23"/>
+      <c r="E30" s="19"/>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
     </row>
@@ -1665,7 +1664,7 @@
       <c r="D31" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E31" s="19">
         <v>6</v>
       </c>
       <c r="F31" s="17"/>
@@ -1679,7 +1678,7 @@
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
-      <c r="E33" s="23"/>
+      <c r="E33" s="19"/>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
     </row>
@@ -1688,7 +1687,7 @@
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
-      <c r="E34" s="23"/>
+      <c r="E34" s="19"/>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
     </row>
@@ -1697,7 +1696,7 @@
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
-      <c r="E35" s="23"/>
+      <c r="E35" s="19"/>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
     </row>
@@ -1706,7 +1705,7 @@
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
-      <c r="E36" s="23"/>
+      <c r="E36" s="19"/>
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
     </row>
@@ -1715,7 +1714,7 @@
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
-      <c r="E37" s="23"/>
+      <c r="E37" s="19"/>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
     </row>
@@ -1724,7 +1723,7 @@
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
-      <c r="E38" s="23"/>
+      <c r="E38" s="19"/>
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
     </row>
@@ -1733,7 +1732,7 @@
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
-      <c r="E39" s="23"/>
+      <c r="E39" s="19"/>
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
     </row>
@@ -1742,7 +1741,7 @@
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
-      <c r="E40" s="23"/>
+      <c r="E40" s="19"/>
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
     </row>
@@ -1751,7 +1750,7 @@
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
-      <c r="E41" s="23"/>
+      <c r="E41" s="19"/>
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
     </row>
@@ -1760,7 +1759,7 @@
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
-      <c r="E42" s="23"/>
+      <c r="E42" s="19"/>
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
     </row>
@@ -1769,7 +1768,7 @@
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
-      <c r="E43" s="23"/>
+      <c r="E43" s="19"/>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
     </row>
@@ -1778,7 +1777,7 @@
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
-      <c r="E44" s="23"/>
+      <c r="E44" s="19"/>
       <c r="F44" s="17"/>
       <c r="G44" s="17"/>
     </row>
@@ -1787,7 +1786,7 @@
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
-      <c r="E45" s="23"/>
+      <c r="E45" s="19"/>
       <c r="F45" s="17"/>
       <c r="G45" s="17"/>
     </row>
@@ -1796,7 +1795,7 @@
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
-      <c r="E46" s="23"/>
+      <c r="E46" s="19"/>
       <c r="F46" s="17"/>
       <c r="G46" s="17"/>
     </row>
@@ -1805,7 +1804,7 @@
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
       <c r="D47" s="17"/>
-      <c r="E47" s="23"/>
+      <c r="E47" s="19"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
     </row>
@@ -1814,7 +1813,7 @@
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
-      <c r="E48" s="23"/>
+      <c r="E48" s="19"/>
       <c r="F48" s="17"/>
       <c r="G48" s="17"/>
     </row>
@@ -1823,7 +1822,7 @@
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
       <c r="D49" s="17"/>
-      <c r="E49" s="23"/>
+      <c r="E49" s="19"/>
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
     </row>
@@ -1832,7 +1831,7 @@
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
       <c r="D50" s="17"/>
-      <c r="E50" s="23"/>
+      <c r="E50" s="19"/>
       <c r="F50" s="17"/>
       <c r="G50" s="17"/>
     </row>
@@ -1841,7 +1840,7 @@
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
-      <c r="E51" s="23"/>
+      <c r="E51" s="19"/>
       <c r="F51" s="17"/>
       <c r="G51" s="17"/>
     </row>
@@ -1850,7 +1849,7 @@
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
       <c r="D52" s="17"/>
-      <c r="E52" s="23"/>
+      <c r="E52" s="19"/>
       <c r="F52" s="17"/>
       <c r="G52" s="17"/>
     </row>
@@ -1859,7 +1858,7 @@
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
-      <c r="E53" s="23"/>
+      <c r="E53" s="19"/>
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>
     </row>
@@ -1868,7 +1867,7 @@
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
       <c r="D54" s="17"/>
-      <c r="E54" s="23"/>
+      <c r="E54" s="19"/>
       <c r="F54" s="17"/>
       <c r="G54" s="17"/>
     </row>
@@ -1877,7 +1876,7 @@
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
-      <c r="E55" s="23"/>
+      <c r="E55" s="19"/>
       <c r="F55" s="17"/>
       <c r="G55" s="17"/>
     </row>
@@ -1886,7 +1885,7 @@
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
       <c r="D56" s="17"/>
-      <c r="E56" s="23"/>
+      <c r="E56" s="19"/>
       <c r="F56" s="17"/>
       <c r="G56" s="17"/>
     </row>
@@ -1895,7 +1894,7 @@
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
       <c r="D57" s="17"/>
-      <c r="E57" s="23"/>
+      <c r="E57" s="19"/>
       <c r="F57" s="17"/>
       <c r="G57" s="17"/>
     </row>
@@ -1904,7 +1903,7 @@
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
       <c r="D58" s="17"/>
-      <c r="E58" s="23"/>
+      <c r="E58" s="19"/>
       <c r="F58" s="17"/>
       <c r="G58" s="17"/>
     </row>
@@ -1913,7 +1912,7 @@
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
       <c r="D59" s="17"/>
-      <c r="E59" s="23"/>
+      <c r="E59" s="19"/>
       <c r="F59" s="17"/>
       <c r="G59" s="17"/>
     </row>
@@ -1922,7 +1921,7 @@
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
       <c r="D60" s="17"/>
-      <c r="E60" s="23"/>
+      <c r="E60" s="19"/>
       <c r="F60" s="17"/>
       <c r="G60" s="17"/>
     </row>
@@ -1931,7 +1930,7 @@
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
       <c r="D61" s="17"/>
-      <c r="E61" s="23"/>
+      <c r="E61" s="19"/>
       <c r="F61" s="17"/>
       <c r="G61" s="17"/>
     </row>
@@ -1940,7 +1939,7 @@
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
       <c r="D62" s="17"/>
-      <c r="E62" s="23"/>
+      <c r="E62" s="19"/>
       <c r="F62" s="17"/>
       <c r="G62" s="17"/>
     </row>
@@ -1949,7 +1948,7 @@
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
       <c r="D63" s="17"/>
-      <c r="E63" s="23"/>
+      <c r="E63" s="19"/>
       <c r="F63" s="17"/>
       <c r="G63" s="17"/>
     </row>
@@ -1958,7 +1957,7 @@
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
       <c r="D64" s="17"/>
-      <c r="E64" s="23"/>
+      <c r="E64" s="19"/>
       <c r="F64" s="17"/>
       <c r="G64" s="17"/>
     </row>
@@ -1967,7 +1966,7 @@
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
       <c r="D65" s="17"/>
-      <c r="E65" s="23"/>
+      <c r="E65" s="19"/>
       <c r="F65" s="17"/>
       <c r="G65" s="17"/>
     </row>
@@ -1976,7 +1975,7 @@
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
       <c r="D66" s="17"/>
-      <c r="E66" s="23"/>
+      <c r="E66" s="19"/>
       <c r="F66" s="17"/>
       <c r="G66" s="17"/>
     </row>
@@ -1985,7 +1984,7 @@
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
       <c r="D67" s="17"/>
-      <c r="E67" s="23"/>
+      <c r="E67" s="19"/>
       <c r="F67" s="17"/>
       <c r="G67" s="17"/>
     </row>
@@ -1994,7 +1993,7 @@
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
       <c r="D68" s="17"/>
-      <c r="E68" s="23"/>
+      <c r="E68" s="19"/>
       <c r="F68" s="17"/>
       <c r="G68" s="17"/>
     </row>
@@ -2003,7 +2002,7 @@
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
       <c r="D69" s="17"/>
-      <c r="E69" s="23"/>
+      <c r="E69" s="19"/>
       <c r="F69" s="17"/>
       <c r="G69" s="17"/>
     </row>
@@ -2012,7 +2011,7 @@
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
       <c r="D70" s="17"/>
-      <c r="E70" s="23"/>
+      <c r="E70" s="19"/>
       <c r="F70" s="17"/>
       <c r="G70" s="17"/>
     </row>
@@ -2132,7 +2131,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/ClOtherRights.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/ClOtherRights.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816E7A8C-4FF9-444D-A7CB-04EBA4A9DADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDF6872-C57C-4198-BD5D-4491CB3B29B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -382,10 +382,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ex：0000-000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>ReceiveFg</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -448,6 +444,10 @@
   </si>
   <si>
     <t>戶號</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex：001</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -715,28 +715,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1083,8 +1083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1100,10 +1100,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="8" t="s">
         <v>58</v>
       </c>
@@ -1115,8 +1115,8 @@
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="11" t="s">
         <v>42</v>
       </c>
@@ -1128,10 +1128,10 @@
       <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="8" t="s">
         <v>61</v>
       </c>
@@ -1141,10 +1141,10 @@
       <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="14" t="s">
         <v>37</v>
       </c>
@@ -1156,10 +1156,10 @@
       <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="14" t="s">
         <v>31</v>
       </c>
@@ -1169,10 +1169,10 @@
       <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="14" t="s">
         <v>32</v>
       </c>
@@ -1182,10 +1182,10 @@
       <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="24"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="14"/>
       <c r="D7" s="15"/>
       <c r="E7" s="20"/>
@@ -1287,14 +1287,14 @@
         <v>60</v>
       </c>
       <c r="D12" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="19">
         <v>3</v>
-      </c>
-      <c r="E12" s="19">
-        <v>8</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1311,7 +1311,7 @@
         <v>70</v>
       </c>
       <c r="E13" s="19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
@@ -1499,104 +1499,104 @@
       <c r="A23" s="18">
         <v>15</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="D23" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="24">
+        <v>1</v>
+      </c>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23" t="s">
         <v>80</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="26">
-        <v>1</v>
-      </c>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="18">
         <v>16</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="D24" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="E24" s="24">
+        <v>8</v>
+      </c>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23" t="s">
         <v>84</v>
-      </c>
-      <c r="E24" s="26">
-        <v>8</v>
-      </c>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
         <v>17</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E25" s="24">
         <v>7</v>
       </c>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25" t="s">
-        <v>85</v>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="18">
         <v>18</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="30">
+      <c r="E26" s="28">
         <v>3</v>
       </c>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25" t="s">
-        <v>85</v>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="18">
         <v>19</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="26">
+      <c r="E27" s="24">
         <v>7</v>
       </c>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="18">
@@ -2105,13 +2105,13 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/ClOtherRights.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/ClOtherRights.xlsx
@@ -1,47 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDF6872-C57C-4198-BD5D-4491CB3B29B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5544B6B7-63DE-4473-88C2-FC5CF57F376D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
-    <sheet name="JsonFields" sheetId="3" r:id="rId3"/>
+    <sheet name="說明" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="108">
   <si>
     <t>讀取Key條件</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>其他ORDER條件</t>
   </si>
   <si>
     <t>FunNm</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
@@ -159,43 +150,43 @@
   </si>
   <si>
     <t>Table</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Uni</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>PrimaryKey</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ForeignKey1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Index1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Index2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Index3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SEQ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>擔保品代號1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>擔保品代號2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ClCode1</t>
@@ -211,256 +202,323 @@
   </si>
   <si>
     <t>擔保品代號檔CdCl</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ClCode1,ClCode2,ClNo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ClMain(ClCode1,ClCode2,ClNo)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>findClCode1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">ClCode1 = </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>findClCode2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">ClCode1 = ,AND ClCode2 = </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Key ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">縣市   </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>地政</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">收件年  </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">收件字 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">收件號 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>權利價值說明</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>擔保債權總金額</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>City</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>LandAdm</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>RecYear</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>RecWord</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>RecNumber</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SecuredTotal</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>擔保品他項權利檔</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>RightsNote</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ClOtherRights</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Seq</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>他項權利序號</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ClCode1,ClCode2,ClNo,Seq</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>findClNo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">ClCode1 = ,AND ClCode2 = ,AND ClNo = </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>findClCodeRange</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ClCode2 ASC,ClNo ASC, Seq ASC</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ClNo ASC, Seq ASC</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Seq ASC</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ClCode1 ASC,ClCode2 ASC, ClNo ASC, Seq ASC</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ClCode1 &gt;= ,AND ClCode1 &lt;= ,AND ClCode2 &gt;= ,AND ClCode2 &lt;= ,AND ClNo &gt;= ,AND ClNo &lt;=</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>其他縣市</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>其他地政</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">其他收件字 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>自行輸入</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>OtherRecWord</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>OtherLandAdm</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>OtherCity</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ReceiveFg</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>領取記號</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0:未領取
 1:已領取</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ChoiceDate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>篩選資料日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>DecimalD</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>篩選資料時upd</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>findChoiceDateEq</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ChoiceDate = ,AND LastUpdateEmpNo =</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CloseNo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>清償序號</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CustNo asc,CloseNo asc</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ReceiveCustNo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>篩選戶號</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustNo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>戶號</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ex：001</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>擔保債權確定日期</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SecuredDate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>他項權利登記次序</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>建物坐落地號</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>ELOAN上送時,檢核同一擔保品編號的登記次序不相同,則新增一筆</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex：0002-000
+資料轉換:固定為9999-nnn同一擔保品由001開始續編</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料轉換:無</t>
+  </si>
+  <si>
+    <t>資料轉換:無</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>自行輸入
+資料轉換:無</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料轉換/ELOAN上送:無</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.LandOfficeCode
+資料轉換:無</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料轉換:擔保品設定日期</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料轉換:擔保品設定金額</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料轉換/ELOAN上送:無
+印錄清償證明時維護
+CdCode.ClRightsNote
+01 本金
+02 債權本金
+03 共同擔保本金
+04 共同擔保債權本金</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>印錄清償證明篩選資料時upd</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELOAN上送擔保品他項權利時,依上送之核准編號建立擔保品他項權利額度關聯檔</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>新貸中維護畫面增加多筆核准編號輸入,需存在於擔保品額度關聯檔,刪除關聯時核准編號改為0</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -563,6 +621,13 @@
       <family val="4"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -578,7 +643,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -627,125 +692,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="一般 2 2" xfId="2" xr:uid="{9F39A279-59AA-4F0D-8EA7-53E422FD4091}"/>
     <cellStyle name="一般 2 2 2" xfId="4" xr:uid="{3FAC3F37-DB15-4A4B-A02E-13DCC44E9DD9}"/>
+    <cellStyle name="一般 2 2 2 2" xfId="8" xr:uid="{16D98855-CE02-410A-AB89-EB8E49E77927}"/>
+    <cellStyle name="一般 2 2 3" xfId="6" xr:uid="{C0DF8C5D-FA25-4E15-A78A-8585BDE7C693}"/>
     <cellStyle name="一般 2 3" xfId="3" xr:uid="{76AF47BB-5311-45C6-B27B-C3CEFD85A145}"/>
+    <cellStyle name="一般 2 3 2" xfId="7" xr:uid="{E6A52245-D241-4FBC-9AFA-0E2A005571DF}"/>
+    <cellStyle name="一般 2 4" xfId="5" xr:uid="{267934E4-B104-4F18-846A-DA6522516F7A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1081,10 +1181,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1092,928 +1192,965 @@
     <col min="1" max="1" width="5.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="72.88671875" style="4"/>
+    <col min="7" max="7" width="33.6640625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="72.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="11" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="14" t="s">
+      <c r="B4" s="32"/>
+      <c r="C4" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="14" t="s">
+      <c r="B5" s="32"/>
+      <c r="C5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="14" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17">
+    <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="17">
         <v>1</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17" t="s">
+      <c r="F9" s="16"/>
+      <c r="G9" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="17">
+      <c r="A10" s="16">
         <v>2</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="17">
         <v>2</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17" t="s">
+      <c r="F10" s="16"/>
+      <c r="G10" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="18">
+      <c r="A11" s="16">
         <v>3</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="17">
         <v>7</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="18">
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
         <v>4</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="18" t="s">
+      <c r="C12" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="30">
+        <v>8</v>
+      </c>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="16">
+        <v>5</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="17">
+        <v>4</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="16">
+        <v>6</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="17">
+        <v>40</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="16">
+        <v>7</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="17">
+        <v>2</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="16">
+        <v>8</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="17">
+        <v>40</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="16">
+        <v>9</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E17" s="17">
         <v>3</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18" t="s">
+      <c r="F17" s="16"/>
+      <c r="G17" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="16">
+        <v>10</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="17">
+        <v>3</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="16">
+        <v>11</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="17">
+        <v>40</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="16">
+        <v>12</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="17">
+        <v>6</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="113.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="16">
+        <v>13</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="17">
+        <v>2</v>
+      </c>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="16">
+        <v>14</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="17">
+        <v>16</v>
+      </c>
+      <c r="F22" s="16">
+        <v>2</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="16">
+        <v>15</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="22">
+        <v>1</v>
+      </c>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="16">
+        <v>16</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="22">
+        <v>8</v>
+      </c>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="16">
+        <v>17</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="22">
+        <v>7</v>
+      </c>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="27">
+        <v>18</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="26">
+        <v>3</v>
+      </c>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="16">
+        <v>19</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="30">
+        <v>8</v>
+      </c>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="16">
+        <v>20</v>
+      </c>
+      <c r="B28" s="29" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="18">
-        <v>5</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="19">
-        <v>4</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="18">
+      <c r="C28" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="29">
+        <v>40</v>
+      </c>
+      <c r="F28" s="21"/>
+      <c r="G28" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="16">
+        <v>21</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="17"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="27">
+        <v>22</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="17">
         <v>6</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="19">
-        <v>40</v>
-      </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="18">
-        <v>7</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="19">
-        <v>2</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="18">
-        <v>8</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="19">
-        <v>40</v>
-      </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="18">
-        <v>9</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="19">
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="16">
+        <v>23</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="17"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="16">
+        <v>24</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="18">
-        <v>10</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="19">
-        <v>3</v>
-      </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="18">
-        <v>11</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="19">
-        <v>40</v>
-      </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="18">
-        <v>12</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="19">
+      <c r="E32" s="17">
         <v>6</v>
       </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="18">
-        <v>13</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="19">
-        <v>2</v>
-      </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="18">
-        <v>14</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="19">
-        <v>16</v>
-      </c>
-      <c r="F22" s="18">
-        <v>2</v>
-      </c>
-      <c r="G22" s="18"/>
-    </row>
-    <row r="23" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="18">
-        <v>15</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="24">
-        <v>1</v>
-      </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="18">
-        <v>16</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" s="24">
-        <v>8</v>
-      </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="18">
-        <v>17</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="24">
-        <v>7</v>
-      </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="18">
-        <v>18</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="28">
-        <v>3</v>
-      </c>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="18">
-        <v>19</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="24">
-        <v>7</v>
-      </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="18">
-        <v>20</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="18">
-        <v>21</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="19">
-        <v>6</v>
-      </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="18">
-        <v>22</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="19"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="18">
-        <v>23</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="19">
-        <v>6</v>
-      </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
+      <c r="A33" s="16"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="17"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="17"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="17"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="17"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="17"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="17"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="17"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="17"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="17"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="17"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="17"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="17"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="17"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
+      <c r="A62" s="16"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="17"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
+      <c r="A63" s="16"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="17"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="17"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
+      <c r="A65" s="16"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="17"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="17"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
+      <c r="A67" s="16"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="17"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="17"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="17"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="16"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2025,7 +2162,7 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2049,13 +2186,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2067,7 +2204,7 @@
         <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2078,44 +2215,44 @@
         <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>89</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -2123,15 +2260,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27BF31AE-C4DD-427B-BFC7-2BE831E6F41A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/ClOtherRights.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/ClOtherRights.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5544B6B7-63DE-4473-88C2-FC5CF57F376D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9E6D3E-DD1A-4D65-BB8A-B9EFBFAFA0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,10 +406,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>CustNo asc,CloseNo asc</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>ReceiveCustNo</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -499,6 +495,10 @@
   <si>
     <t>新貸中維護畫面增加多筆核准編號輸入,需存在於擔保品額度關聯檔,刪除關聯時核准編號改為0</t>
     <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>CloseNo asc</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1184,7 +1184,7 @@
   <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1384,7 +1384,7 @@
         <v>59</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" s="29" t="s">
         <v>69</v>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="F12" s="29"/>
       <c r="G12" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1415,7 +1415,7 @@
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1520,7 +1520,7 @@
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="113.4" x14ac:dyDescent="0.3">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1606,7 +1606,7 @@
         <v>2</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="F24" s="21"/>
       <c r="G24" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1656,10 +1656,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="24" t="s">
         <v>87</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>88</v>
       </c>
       <c r="D25" s="21" t="s">
         <v>19</v>
@@ -1669,7 +1669,7 @@
       </c>
       <c r="F25" s="21"/>
       <c r="G25" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="F26" s="21"/>
       <c r="G26" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1698,10 +1698,10 @@
         <v>19</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" s="29" t="s">
         <v>81</v>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1719,20 +1719,20 @@
         <v>20</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E28" s="29">
         <v>40</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -2248,7 +2248,7 @@
         <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2270,17 +2270,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/ClOtherRights.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/ClOtherRights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L2-業務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9E6D3E-DD1A-4D65-BB8A-B9EFBFAFA0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD9011F-E02B-45D2-94A1-48643152A2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -394,10 +394,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>ChoiceDate = ,AND LastUpdateEmpNo =</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>CloseNo</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -464,10 +460,6 @@
   <si>
     <t>CdCode.LandOfficeCode
 資料轉換:無</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>資料轉換:擔保品設定日期</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -499,6 +491,14 @@
   <si>
     <t>CloseNo asc</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料轉換:擔保債權確定日期</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChoiceDate &gt;= ,AND ChoiceDate &lt;= ,AND LastUpdateEmpNo =</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -820,14 +820,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -861,9 +861,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -901,9 +901,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -936,26 +936,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -988,26 +971,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1183,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1383,18 +1349,18 @@
       <c r="B12" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="29" t="s">
+      <c r="C12" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="29">
         <v>8</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29" t="s">
-        <v>95</v>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1415,7 +1381,7 @@
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1436,7 +1402,7 @@
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1457,7 +1423,7 @@
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1478,7 +1444,7 @@
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1499,7 +1465,7 @@
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1520,7 +1486,7 @@
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1541,7 +1507,7 @@
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1562,7 +1528,7 @@
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="113.4" x14ac:dyDescent="0.3">
@@ -1583,7 +1549,7 @@
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1606,7 +1572,7 @@
         <v>2</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1648,7 +1614,7 @@
       </c>
       <c r="F24" s="21"/>
       <c r="G24" s="21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1656,10 +1622,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="24" t="s">
         <v>86</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>87</v>
       </c>
       <c r="D25" s="21" t="s">
         <v>19</v>
@@ -1669,7 +1635,7 @@
       </c>
       <c r="F25" s="21"/>
       <c r="G25" s="21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1677,10 +1643,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="25" t="s">
         <v>84</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>85</v>
       </c>
       <c r="D26" s="21" t="s">
         <v>19</v>
@@ -1690,49 +1656,49 @@
       </c>
       <c r="F26" s="21"/>
       <c r="G26" s="21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
         <v>19</v>
       </c>
-      <c r="B27" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="28" t="s">
+      <c r="B27" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="C27" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="30">
+      <c r="E27" s="22">
         <v>8</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="16">
         <v>20</v>
       </c>
-      <c r="B28" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C28" s="29" t="s">
+      <c r="B28" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="E28" s="29">
+      <c r="C28" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="21">
         <v>40</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1753,7 +1719,7 @@
       <c r="G29" s="16"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="27">
+      <c r="A30" s="16">
         <v>22</v>
       </c>
       <c r="B30" s="16" t="s">
@@ -2172,9 +2138,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2245,10 +2211,10 @@
         <v>82</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2270,17 +2236,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/ClOtherRights.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/ClOtherRights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD9011F-E02B-45D2-94A1-48643152A2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4CCEA4-2052-4311-830F-3BB922F530CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -119,9 +119,6 @@
     <t>LastUpdateEmpNo</t>
   </si>
   <si>
-    <t>DATE</t>
-  </si>
-  <si>
     <t>CreateDate</t>
   </si>
   <si>
@@ -499,6 +496,9 @@
   <si>
     <t>ChoiceDate &gt;= ,AND ChoiceDate &lt;= ,AND LastUpdateEmpNo =</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -1149,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1167,14 +1167,14 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E1" s="18"/>
       <c r="F1" s="9"/>
@@ -1184,10 +1184,10 @@
       <c r="A2" s="31"/>
       <c r="B2" s="32"/>
       <c r="C2" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="12"/>
@@ -1195,11 +1195,11 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="18"/>
@@ -1208,14 +1208,14 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="32"/>
       <c r="C4" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="12"/>
@@ -1223,11 +1223,11 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="32"/>
       <c r="C5" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="18"/>
@@ -1236,11 +1236,11 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="32"/>
       <c r="C6" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="18"/>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="32"/>
       <c r="C7" s="13"/>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>4</v>
@@ -1286,20 +1286,20 @@
         <v>1</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="17">
         <v>1</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1307,20 +1307,20 @@
         <v>2</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="17">
         <v>2</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1328,13 +1328,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="17">
         <v>7</v>
@@ -1347,20 +1347,20 @@
         <v>4</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E12" s="29">
         <v>8</v>
       </c>
       <c r="F12" s="28"/>
       <c r="G12" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1368,20 +1368,20 @@
         <v>5</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E13" s="17">
         <v>4</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1389,20 +1389,20 @@
         <v>6</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E14" s="17">
         <v>40</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1410,20 +1410,20 @@
         <v>7</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E15" s="17">
         <v>2</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1431,20 +1431,20 @@
         <v>8</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E16" s="17">
         <v>40</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1452,20 +1452,20 @@
         <v>9</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E17" s="17">
         <v>3</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1473,20 +1473,20 @@
         <v>10</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E18" s="17">
         <v>3</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1494,20 +1494,20 @@
         <v>11</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E19" s="17">
         <v>40</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1515,10 +1515,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>3</v>
@@ -1528,7 +1528,7 @@
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="113.4" x14ac:dyDescent="0.3">
@@ -1536,10 +1536,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>3</v>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1557,13 +1557,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E22" s="17">
         <v>16</v>
@@ -1572,7 +1572,7 @@
         <v>2</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1580,20 +1580,20 @@
         <v>15</v>
       </c>
       <c r="B23" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="21" t="s">
-        <v>77</v>
-      </c>
       <c r="D23" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E23" s="22">
         <v>1</v>
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1601,20 +1601,20 @@
         <v>16</v>
       </c>
       <c r="B24" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="D24" s="21" t="s">
         <v>80</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>81</v>
       </c>
       <c r="E24" s="22">
         <v>8</v>
       </c>
       <c r="F24" s="21"/>
       <c r="G24" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1622,20 +1622,20 @@
         <v>17</v>
       </c>
       <c r="B25" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="24" t="s">
-        <v>86</v>
-      </c>
       <c r="D25" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E25" s="22">
         <v>7</v>
       </c>
       <c r="F25" s="21"/>
       <c r="G25" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1643,20 +1643,20 @@
         <v>18</v>
       </c>
       <c r="B26" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="25" t="s">
-        <v>84</v>
-      </c>
       <c r="D26" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E26" s="26">
         <v>3</v>
       </c>
       <c r="F26" s="21"/>
       <c r="G26" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1664,20 +1664,20 @@
         <v>19</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E27" s="22">
         <v>8</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1685,20 +1685,20 @@
         <v>20</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E28" s="21">
         <v>40</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1706,13 +1706,13 @@
         <v>21</v>
       </c>
       <c r="B29" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="D29" s="16" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="16"/>
@@ -1723,10 +1723,10 @@
         <v>22</v>
       </c>
       <c r="B30" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>3</v>
@@ -1742,13 +1742,13 @@
         <v>23</v>
       </c>
       <c r="B31" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="D31" s="16" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="16"/>
@@ -1762,7 +1762,7 @@
         <v>10</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>3</v>
@@ -2138,7 +2138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
@@ -2164,57 +2164,57 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2236,17 +2236,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
